--- a/data/trans_orig/P5710-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5710-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6267039A-00C6-413D-9428-302E407FE282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44E277A5-AC1D-48AF-9709-F35AFD2B8D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E5E16080-776F-43C4-9CDD-8BF0FB8D5DB5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55852D4B-0C06-4F26-B47B-89EC1C7AD578}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="637">
   <si>
     <t>Población según la frecuencia de recibir consejos útiles cuando me ocurre algún acontecimiento importante en mi vida en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>49,87%</t>
   </si>
   <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
   </si>
   <si>
     <t>48,6%</t>
   </si>
   <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
   </si>
   <si>
     <t>49,16%</t>
   </si>
   <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
   </si>
   <si>
     <t>Casi como deseo</t>
@@ -107,28 +107,28 @@
     <t>26,79%</t>
   </si>
   <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
   </si>
   <si>
     <t>25,41%</t>
   </si>
   <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
   </si>
   <si>
     <t>26,02%</t>
   </si>
   <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
   </si>
   <si>
     <t>Ni mucho ni poco</t>
@@ -137,28 +137,28 @@
     <t>18,08%</t>
   </si>
   <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
   </si>
   <si>
     <t>17,56%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
   </si>
   <si>
     <t>17,79%</t>
   </si>
   <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
   </si>
   <si>
     <t>Menos de lo que deseo</t>
@@ -167,19 +167,19 @@
     <t>4,53%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
   </si>
   <si>
     <t>6,04%</t>
@@ -188,7 +188,7 @@
     <t>5,1%</t>
   </si>
   <si>
-    <t>7,05%</t>
+    <t>7,09%</t>
   </si>
   <si>
     <t>Mucho menos de lo que deseo</t>
@@ -197,1765 +197,1759 @@
     <t>0,74%</t>
   </si>
   <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir consejos útiles cuando me ocurre algún acontecimiento importante en mi vida en 2012 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir consejos útiles cuando me ocurre algún acontecimiento importante en mi vida en 2015 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir consejos útiles cuando me ocurre algún acontecimiento importante en mi vida en 2023 (Tasa respuesta: 99,52%)</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
   </si>
   <si>
     <t>9,82%</t>
   </si>
   <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir consejos útiles cuando me ocurre algún acontecimiento importante en mi vida en 2012 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir consejos útiles cuando me ocurre algún acontecimiento importante en mi vida en 2015 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir consejos útiles cuando me ocurre algún acontecimiento importante en mi vida en 2023 (Tasa respuesta: 99,52%)</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>4,1%</t>
+    <t>4,04%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
   </si>
   <si>
     <t>5,04%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
+    <t>10,43%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
   </si>
 </sst>
 </file>
@@ -2367,7 +2361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62080BF2-3253-40A8-999B-8C91CA605989}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E9CEC8-2D2C-4A86-9A3E-EA7CC6FF4600}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2868,10 +2862,10 @@
         <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>831</v>
@@ -2880,13 +2874,13 @@
         <v>837142</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,13 +2895,13 @@
         <v>148880</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>170</v>
@@ -2916,13 +2910,13 @@
         <v>178761</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>319</v>
@@ -2931,13 +2925,13 @@
         <v>327641</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2946,13 @@
         <v>32157</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -2967,13 +2961,13 @@
         <v>44555</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -2982,13 +2976,13 @@
         <v>76712</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,13 +2997,13 @@
         <v>2026</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3018,13 +3012,13 @@
         <v>3200</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -3033,13 +3027,13 @@
         <v>5227</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,7 +3089,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3107,13 +3101,13 @@
         <v>337579</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>287</v>
@@ -3122,13 +3116,13 @@
         <v>300968</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>611</v>
@@ -3137,13 +3131,13 @@
         <v>638547</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,13 +3152,13 @@
         <v>152914</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>118</v>
@@ -3173,13 +3167,13 @@
         <v>124111</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>264</v>
@@ -3188,13 +3182,13 @@
         <v>277025</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,13 +3203,13 @@
         <v>48063</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>37</v>
@@ -3224,13 +3218,13 @@
         <v>40020</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>81</v>
@@ -3239,13 +3233,13 @@
         <v>88083</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3254,13 @@
         <v>10700</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -3275,13 +3269,13 @@
         <v>9791</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -3290,13 +3284,13 @@
         <v>20491</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,13 +3305,13 @@
         <v>1067</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3326,13 +3320,13 @@
         <v>1522</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3341,13 +3335,13 @@
         <v>2589</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +3409,13 @@
         <v>1945016</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>1847</v>
@@ -3430,13 +3424,13 @@
         <v>1881582</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>3746</v>
@@ -3445,13 +3439,13 @@
         <v>3826597</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3460,13 @@
         <v>846731</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>858</v>
@@ -3481,13 +3475,13 @@
         <v>878047</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>1696</v>
@@ -3496,13 +3490,13 @@
         <v>1724778</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3511,13 @@
         <v>383432</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>433</v>
@@ -3532,13 +3526,13 @@
         <v>449729</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>812</v>
@@ -3547,13 +3541,13 @@
         <v>833161</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3562,13 @@
         <v>89602</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="H25" s="7">
         <v>140</v>
@@ -3583,13 +3577,13 @@
         <v>149386</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>227</v>
@@ -3598,13 +3592,13 @@
         <v>238988</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,13 +3613,13 @@
         <v>10678</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -3634,13 +3628,13 @@
         <v>20455</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>29</v>
@@ -3649,13 +3643,13 @@
         <v>31132</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,7 +3705,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3730,7 +3724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC97568-B3E3-4441-9E8A-4C0BC563776B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657C187D-271B-4A19-9671-0767860C80C6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3747,7 +3741,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3854,13 +3848,13 @@
         <v>530236</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H4" s="7">
         <v>643</v>
@@ -3869,13 +3863,13 @@
         <v>687303</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
         <v>1141</v>
@@ -3884,13 +3878,13 @@
         <v>1217540</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>196</v>
+        <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,13 +3899,13 @@
         <v>260322</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>401</v>
@@ -4216,10 +4210,10 @@
         <v>244</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H11" s="7">
         <v>467</v>
@@ -4228,13 +4222,13 @@
         <v>497425</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M11" s="7">
         <v>977</v>
@@ -4243,13 +4237,13 @@
         <v>1047528</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,10 +4276,10 @@
         <v>255</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>46</v>
+        <v>256</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M12" s="7">
         <v>317</v>
@@ -4294,13 +4288,13 @@
         <v>341585</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,7 +4315,7 @@
         <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>91</v>
+        <v>262</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -4330,13 +4324,13 @@
         <v>43409</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -4345,13 +4339,13 @@
         <v>81929</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4360,13 @@
         <v>6964</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>268</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -4381,13 +4375,13 @@
         <v>11871</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>267</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>268</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -4396,13 +4390,13 @@
         <v>18835</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,7 +4452,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4470,13 +4464,13 @@
         <v>313427</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7">
         <v>288</v>
@@ -4485,13 +4479,13 @@
         <v>316938</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
         <v>574</v>
@@ -4500,13 +4494,13 @@
         <v>630365</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4515,13 @@
         <v>121962</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H17" s="7">
         <v>93</v>
@@ -4536,13 +4530,13 @@
         <v>104367</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M17" s="7">
         <v>203</v>
@@ -4551,13 +4545,13 @@
         <v>226329</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4566,13 @@
         <v>37550</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -4587,13 +4581,13 @@
         <v>31312</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M18" s="7">
         <v>59</v>
@@ -4602,13 +4596,13 @@
         <v>68861</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,13 +4617,13 @@
         <v>5249</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4638,13 +4632,13 @@
         <v>1909</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4653,10 +4647,10 @@
         <v>7159</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>304</v>
@@ -4674,13 +4668,13 @@
         <v>897</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4689,13 +4683,13 @@
         <v>2160</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -4704,13 +4698,13 @@
         <v>3057</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>307</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,10 +4826,10 @@
         <v>317</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H23" s="7">
         <v>961</v>
@@ -4844,13 +4838,13 @@
         <v>1035256</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M23" s="7">
         <v>1821</v>
@@ -4859,13 +4853,13 @@
         <v>1967643</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4874,13 @@
         <v>338191</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H24" s="7">
         <v>334</v>
@@ -4895,13 +4889,13 @@
         <v>366564</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M24" s="7">
         <v>649</v>
@@ -4910,13 +4904,13 @@
         <v>704756</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4925,13 @@
         <v>78355</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -4946,13 +4940,13 @@
         <v>76845</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M25" s="7">
         <v>142</v>
@@ -4961,13 +4955,13 @@
         <v>155200</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>340</v>
+        <v>89</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,13 +4976,13 @@
         <v>15965</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>343</v>
+        <v>269</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
@@ -4997,13 +4991,13 @@
         <v>35458</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>344</v>
+        <v>135</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>55</v>
+        <v>341</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M26" s="7">
         <v>48</v>
@@ -5015,10 +5009,10 @@
         <v>51</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>346</v>
+        <v>103</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>347</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,7 +5068,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -5093,7 +5087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8B3BDD-878B-4B3C-937F-5C26CD932E2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE77D03D-9C07-42D5-8F39-297F3B7B8C79}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5110,7 +5104,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5217,13 +5211,13 @@
         <v>336304</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H4" s="7">
         <v>388</v>
@@ -5232,13 +5226,13 @@
         <v>431466</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M4" s="7">
         <v>729</v>
@@ -5247,13 +5241,13 @@
         <v>767771</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5262,13 @@
         <v>268013</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H5" s="7">
         <v>323</v>
@@ -5283,13 +5277,13 @@
         <v>357638</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M5" s="7">
         <v>592</v>
@@ -5298,13 +5292,13 @@
         <v>625651</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,13 +5313,13 @@
         <v>113226</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H6" s="7">
         <v>143</v>
@@ -5334,13 +5328,13 @@
         <v>161733</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="M6" s="7">
         <v>257</v>
@@ -5349,13 +5343,13 @@
         <v>274959</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,13 +5364,13 @@
         <v>32814</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -5385,13 +5379,13 @@
         <v>31354</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -5400,13 +5394,13 @@
         <v>64168</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,13 +5415,13 @@
         <v>3990</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -5436,13 +5430,13 @@
         <v>11197</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>389</v>
+        <v>103</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -5451,13 +5445,13 @@
         <v>15187</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>145</v>
+        <v>385</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,13 +5519,13 @@
         <v>1002853</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H10" s="7">
         <v>975</v>
@@ -5540,13 +5534,13 @@
         <v>1004678</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M10" s="7">
         <v>1919</v>
@@ -5555,13 +5549,13 @@
         <v>2007531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,13 +5570,13 @@
         <v>739412</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H11" s="7">
         <v>668</v>
@@ -5591,13 +5585,13 @@
         <v>698432</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>404</v>
+        <v>357</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M11" s="7">
         <v>1367</v>
@@ -5606,13 +5600,13 @@
         <v>1437844</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,13 +5621,13 @@
         <v>270581</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H12" s="7">
         <v>222</v>
@@ -5642,13 +5636,13 @@
         <v>237641</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M12" s="7">
         <v>475</v>
@@ -5657,13 +5651,13 @@
         <v>508222</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,13 +5672,13 @@
         <v>47020</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>420</v>
+        <v>97</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -5693,13 +5687,13 @@
         <v>31471</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>421</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -5708,13 +5702,13 @@
         <v>78492</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>424</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>426</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,13 +5723,13 @@
         <v>13016</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>420</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -5744,13 +5738,13 @@
         <v>11637</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>422</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -5759,13 +5753,13 @@
         <v>24654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,7 +5815,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5833,13 +5827,13 @@
         <v>305667</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="H16" s="7">
         <v>313</v>
@@ -5851,10 +5845,10 @@
         <v>65</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="M16" s="7">
         <v>596</v>
@@ -5863,13 +5857,13 @@
         <v>630752</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>435</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,13 +5878,13 @@
         <v>188978</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="H17" s="7">
         <v>160</v>
@@ -5899,13 +5893,13 @@
         <v>169109</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>441</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="M17" s="7">
         <v>332</v>
@@ -5914,13 +5908,13 @@
         <v>358087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5935,13 +5929,13 @@
         <v>50340</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
@@ -5950,13 +5944,13 @@
         <v>44268</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>450</v>
+        <v>45</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="M18" s="7">
         <v>87</v>
@@ -5965,13 +5959,13 @@
         <v>94608</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,13 +5980,13 @@
         <v>1036</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>428</v>
+        <v>143</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -6001,13 +5995,13 @@
         <v>9743</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>455</v>
+        <v>264</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>456</v>
+        <v>305</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -6019,10 +6013,10 @@
         <v>57</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>185</v>
+        <v>386</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>338</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,13 +6031,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>459</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6052,13 +6046,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6067,13 +6061,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,13 +6135,13 @@
         <v>1644824</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>194</v>
+        <v>448</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="H22" s="7">
         <v>1676</v>
@@ -6156,13 +6150,13 @@
         <v>1761230</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="M22" s="7">
         <v>3244</v>
@@ -6171,13 +6165,13 @@
         <v>3406054</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,13 +6186,13 @@
         <v>1196403</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="H23" s="7">
         <v>1151</v>
@@ -6207,13 +6201,13 @@
         <v>1225179</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="M23" s="7">
         <v>2291</v>
@@ -6222,13 +6216,13 @@
         <v>2421582</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6243,10 +6237,10 @@
         <v>434147</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>467</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>208</v>
@@ -6258,13 +6252,13 @@
         <v>443643</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="M24" s="7">
         <v>819</v>
@@ -6273,13 +6267,13 @@
         <v>877789</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>482</v>
+        <v>209</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6294,13 +6288,13 @@
         <v>80871</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>218</v>
+        <v>473</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -6309,13 +6303,13 @@
         <v>72569</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>229</v>
+        <v>475</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="M25" s="7">
         <v>141</v>
@@ -6324,13 +6318,13 @@
         <v>153440</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>485</v>
+        <v>224</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>341</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,13 +6339,13 @@
         <v>17006</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>52</v>
+        <v>480</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -6360,13 +6354,13 @@
         <v>22835</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>344</v>
+        <v>483</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -6375,13 +6369,13 @@
         <v>39841</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>227</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,7 +6431,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -6456,7 +6450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AB7A46-6EBD-43C8-B3B6-3185C93E9923}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9D2E19-A9E4-4695-AEAC-B15DA50C8BEC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6473,7 +6467,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6580,13 +6574,13 @@
         <v>241504</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="H4" s="7">
         <v>598</v>
@@ -6595,13 +6589,13 @@
         <v>353131</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="M4" s="7">
         <v>902</v>
@@ -6610,13 +6604,13 @@
         <v>594635</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,13 +6625,13 @@
         <v>159410</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>158</v>
+        <v>497</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H5" s="7">
         <v>431</v>
@@ -6646,13 +6640,13 @@
         <v>258023</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M5" s="7">
         <v>635</v>
@@ -6661,13 +6655,13 @@
         <v>417433</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6676,13 @@
         <v>78547</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H6" s="7">
         <v>247</v>
@@ -6697,13 +6691,13 @@
         <v>134537</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M6" s="7">
         <v>348</v>
@@ -6712,13 +6706,13 @@
         <v>213084</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6727,13 @@
         <v>44982</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>451</v>
+        <v>515</v>
       </c>
       <c r="H7" s="7">
         <v>102</v>
@@ -6748,13 +6742,13 @@
         <v>59482</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="M7" s="7">
         <v>163</v>
@@ -6763,13 +6757,13 @@
         <v>104464</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,13 +6778,13 @@
         <v>13401</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>526</v>
+        <v>387</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H8" s="7">
         <v>34</v>
@@ -6799,13 +6793,13 @@
         <v>21231</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>455</v>
+        <v>525</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M8" s="7">
         <v>51</v>
@@ -6814,13 +6808,13 @@
         <v>34632</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>531</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,13 +6882,13 @@
         <v>1156011</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H10" s="7">
         <v>1484</v>
@@ -6903,13 +6897,13 @@
         <v>1143112</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="M10" s="7">
         <v>2457</v>
@@ -6918,13 +6912,13 @@
         <v>2299123</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,13 +6933,13 @@
         <v>749388</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="H11" s="7">
         <v>1057</v>
@@ -6954,13 +6948,13 @@
         <v>729881</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M11" s="7">
         <v>1804</v>
@@ -6969,13 +6963,13 @@
         <v>1479269</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6990,13 +6984,13 @@
         <v>185973</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H12" s="7">
         <v>245</v>
@@ -7005,13 +6999,13 @@
         <v>173910</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>518</v>
+        <v>551</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="M12" s="7">
         <v>430</v>
@@ -7020,13 +7014,13 @@
         <v>359883</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7041,13 +7035,13 @@
         <v>53209</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>340</v>
+        <v>477</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H13" s="7">
         <v>99</v>
@@ -7056,13 +7050,13 @@
         <v>177632</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>336</v>
+        <v>559</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="M13" s="7">
         <v>166</v>
@@ -7071,13 +7065,13 @@
         <v>230842</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7092,13 +7086,13 @@
         <v>17441</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>456</v>
+        <v>272</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>566</v>
+        <v>386</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -7107,13 +7101,13 @@
         <v>18241</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>456</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>568</v>
+        <v>103</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>565</v>
       </c>
       <c r="M14" s="7">
         <v>46</v>
@@ -7122,13 +7116,13 @@
         <v>35683</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>456</v>
+        <v>272</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>182</v>
+        <v>566</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>569</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7184,7 +7178,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7196,13 +7190,13 @@
         <v>403492</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="H16" s="7">
         <v>654</v>
@@ -7211,13 +7205,13 @@
         <v>482658</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="M16" s="7">
         <v>1055</v>
@@ -7226,13 +7220,13 @@
         <v>886150</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7247,13 +7241,13 @@
         <v>205242</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>580</v>
+        <v>250</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H17" s="7">
         <v>284</v>
@@ -7262,13 +7256,13 @@
         <v>181151</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="M17" s="7">
         <v>501</v>
@@ -7277,13 +7271,13 @@
         <v>386392</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>584</v>
+        <v>542</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7298,13 +7292,13 @@
         <v>37434</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>290</v>
+        <v>584</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
@@ -7313,13 +7307,13 @@
         <v>36804</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="M18" s="7">
         <v>85</v>
@@ -7328,13 +7322,13 @@
         <v>74238</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,13 +7343,13 @@
         <v>16573</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>53</v>
+        <v>342</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -7364,13 +7358,13 @@
         <v>8281</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>427</v>
+        <v>186</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -7379,13 +7373,13 @@
         <v>24853</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>269</v>
+        <v>595</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>598</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,13 +7394,13 @@
         <v>7664</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>176</v>
+        <v>597</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -7415,13 +7409,13 @@
         <v>2682</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>459</v>
+        <v>105</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>600</v>
+        <v>307</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -7430,13 +7424,13 @@
         <v>10346</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>343</v>
+        <v>598</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>342</v>
+        <v>52</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>56</v>
+        <v>599</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7504,13 +7498,13 @@
         <v>1801007</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>603</v>
       </c>
       <c r="H22" s="7">
         <v>2736</v>
@@ -7519,28 +7513,28 @@
         <v>1978901</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>605</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>606</v>
       </c>
       <c r="M22" s="7">
         <v>4414</v>
       </c>
       <c r="N22" s="7">
-        <v>3779907</v>
+        <v>3779909</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>607</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7555,13 +7549,13 @@
         <v>1114039</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="H23" s="7">
         <v>1772</v>
@@ -7570,28 +7564,28 @@
         <v>1169055</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>614</v>
       </c>
       <c r="M23" s="7">
         <v>2940</v>
       </c>
       <c r="N23" s="7">
-        <v>2283094</v>
+        <v>2283095</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7606,13 +7600,13 @@
         <v>301954</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>620</v>
       </c>
       <c r="H24" s="7">
         <v>538</v>
@@ -7621,13 +7615,13 @@
         <v>345251</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>623</v>
       </c>
       <c r="M24" s="7">
         <v>863</v>
@@ -7636,13 +7630,13 @@
         <v>647205</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>625</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7657,7 +7651,7 @@
         <v>114764</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>134</v>
+        <v>626</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>627</v>
@@ -7690,10 +7684,10 @@
         <v>632</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>633</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7708,13 +7702,13 @@
         <v>38507</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>635</v>
+        <v>272</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>263</v>
+        <v>336</v>
       </c>
       <c r="H26" s="7">
         <v>64</v>
@@ -7723,13 +7717,13 @@
         <v>42154</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>226</v>
+        <v>635</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>304</v>
+        <v>53</v>
       </c>
       <c r="M26" s="7">
         <v>105</v>
@@ -7738,13 +7732,13 @@
         <v>80661</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>637</v>
+        <v>147</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7786,7 +7780,7 @@
         <v>8681</v>
       </c>
       <c r="N27" s="7">
-        <v>7151026</v>
+        <v>7151028</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -7800,7 +7794,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5710-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5710-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44E277A5-AC1D-48AF-9709-F35AFD2B8D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C6AABC9-81F4-4E41-816F-59D696433430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55852D4B-0C06-4F26-B47B-89EC1C7AD578}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E33F8456-8CB8-43A4-9DE1-B1A0AF51C959}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="649">
   <si>
     <t>Población según la frecuencia de recibir consejos útiles cuando me ocurre algún acontecimiento importante en mi vida en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1879 +77,1915 @@
     <t>49,87%</t>
   </si>
   <si>
-    <t>46,71%</t>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>Casi como deseo</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>Ni mucho ni poco</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>Menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir consejos útiles cuando me ocurre algún acontecimiento importante en mi vida en 2012 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
   </si>
   <si>
     <t>52,91%</t>
   </si>
   <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>Casi como deseo</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>Ni mucho ni poco</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>Menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir consejos útiles cuando me ocurre algún acontecimiento importante en mi vida en 2016 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir consejos útiles cuando me ocurre algún acontecimiento importante en mi vida en 2023 (Tasa respuesta: 99,52%)</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
   <si>
     <t>0,9%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir consejos útiles cuando me ocurre algún acontecimiento importante en mi vida en 2012 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir consejos útiles cuando me ocurre algún acontecimiento importante en mi vida en 2015 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir consejos útiles cuando me ocurre algún acontecimiento importante en mi vida en 2023 (Tasa respuesta: 99,52%)</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
   </si>
 </sst>
 </file>
@@ -2361,7 +2397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E9CEC8-2D2C-4A86-9A3E-EA7CC6FF4600}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1188CCB6-19E8-44C1-9F9E-5F198018B857}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2790,7 +2826,7 @@
         <v>1051</v>
       </c>
       <c r="D10" s="7">
-        <v>1092938</v>
+        <v>1092939</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -3045,7 +3081,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3221,10 +3257,10 @@
         <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>81</v>
@@ -3233,13 +3269,13 @@
         <v>88083</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,13 +3290,13 @@
         <v>10700</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -3269,7 +3305,7 @@
         <v>9791</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>137</v>
@@ -3568,7 +3604,7 @@
         <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>140</v>
@@ -3577,13 +3613,13 @@
         <v>149386</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>227</v>
@@ -3592,13 +3628,13 @@
         <v>238988</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3649,13 @@
         <v>10678</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -3628,10 +3664,10 @@
         <v>20455</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>187</v>
@@ -3649,7 +3685,7 @@
         <v>144</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,7 +3741,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3724,7 +3760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657C187D-271B-4A19-9671-0767860C80C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86751E51-B984-4ECD-9C7E-88547B1A50C2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3741,7 +3777,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3848,13 +3884,13 @@
         <v>530236</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H4" s="7">
         <v>643</v>
@@ -3863,13 +3899,13 @@
         <v>687303</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M4" s="7">
         <v>1141</v>
@@ -3878,7 +3914,7 @@
         <v>1217540</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>198</v>
@@ -3905,7 +3941,7 @@
         <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="H5" s="7">
         <v>401</v>
@@ -3914,13 +3950,13 @@
         <v>433464</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
         <v>641</v>
@@ -3929,13 +3965,13 @@
         <v>693786</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,13 +3986,13 @@
         <v>136420</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H6" s="7">
         <v>148</v>
@@ -3965,13 +4001,13 @@
         <v>157889</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M6" s="7">
         <v>273</v>
@@ -3980,13 +4016,13 @@
         <v>294309</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,13 +4037,13 @@
         <v>34585</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -4016,13 +4052,13 @@
         <v>31526</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -4031,13 +4067,13 @@
         <v>66111</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4088,13 @@
         <v>8104</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -4067,13 +4103,13 @@
         <v>21426</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -4082,13 +4118,13 @@
         <v>29531</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,16 +4189,16 @@
         <v>1146</v>
       </c>
       <c r="D10" s="7">
-        <v>1201893</v>
+        <v>1201894</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H10" s="7">
         <v>958</v>
@@ -4171,13 +4207,13 @@
         <v>1026634</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M10" s="7">
         <v>2104</v>
@@ -4186,13 +4222,13 @@
         <v>2228527</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,16 +4240,16 @@
         <v>510</v>
       </c>
       <c r="D11" s="7">
-        <v>550102</v>
+        <v>550103</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>160</v>
+        <v>246</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H11" s="7">
         <v>467</v>
@@ -4222,13 +4258,13 @@
         <v>497425</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M11" s="7">
         <v>977</v>
@@ -4237,13 +4273,13 @@
         <v>1047528</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4294,13 @@
         <v>164221</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H12" s="7">
         <v>161</v>
@@ -4273,13 +4309,13 @@
         <v>177364</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M12" s="7">
         <v>317</v>
@@ -4288,13 +4324,13 @@
         <v>341585</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4345,13 @@
         <v>38520</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -4324,13 +4360,13 @@
         <v>43409</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>96</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -4339,13 +4375,13 @@
         <v>81929</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>267</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4396,13 @@
         <v>6964</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -4375,13 +4411,13 @@
         <v>11871</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -4390,13 +4426,13 @@
         <v>18835</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,7 +4444,7 @@
         <v>1854</v>
       </c>
       <c r="D15" s="7">
-        <v>1961701</v>
+        <v>1961702</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -4464,13 +4500,13 @@
         <v>313427</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H16" s="7">
         <v>288</v>
@@ -4479,13 +4515,13 @@
         <v>316938</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M16" s="7">
         <v>574</v>
@@ -4494,13 +4530,13 @@
         <v>630365</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4551,13 @@
         <v>121962</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H17" s="7">
         <v>93</v>
@@ -4530,13 +4566,13 @@
         <v>104367</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>203</v>
@@ -4545,13 +4581,13 @@
         <v>226329</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>288</v>
+        <v>75</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,13 +4602,13 @@
         <v>37550</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -4581,13 +4617,13 @@
         <v>31312</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M18" s="7">
         <v>59</v>
@@ -4596,13 +4632,13 @@
         <v>68861</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4653,13 @@
         <v>5249</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4632,13 +4668,13 @@
         <v>1909</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4647,13 +4683,13 @@
         <v>7159</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>144</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,7 +4710,7 @@
         <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4689,7 +4725,7 @@
         <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -4698,13 +4734,13 @@
         <v>3057</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4808,13 @@
         <v>2045556</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>309</v>
+        <v>243</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H22" s="7">
         <v>1889</v>
@@ -4787,13 +4823,13 @@
         <v>2030875</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M22" s="7">
         <v>3819</v>
@@ -4802,13 +4838,13 @@
         <v>4076431</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4859,13 @@
         <v>932387</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>163</v>
+        <v>321</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H23" s="7">
         <v>961</v>
@@ -4838,13 +4874,13 @@
         <v>1035256</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M23" s="7">
         <v>1821</v>
@@ -4853,13 +4889,13 @@
         <v>1967643</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,13 +4910,13 @@
         <v>338191</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H24" s="7">
         <v>334</v>
@@ -4889,13 +4925,13 @@
         <v>366564</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="M24" s="7">
         <v>649</v>
@@ -4904,13 +4940,13 @@
         <v>704756</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4961,13 @@
         <v>78355</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>234</v>
+        <v>339</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -4940,13 +4976,13 @@
         <v>76845</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>337</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>142</v>
@@ -4955,13 +4991,13 @@
         <v>155200</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>89</v>
+        <v>344</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,10 +5015,10 @@
         <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
@@ -4991,13 +5027,13 @@
         <v>35458</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>135</v>
+        <v>347</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M26" s="7">
         <v>48</v>
@@ -5009,7 +5045,7 @@
         <v>51</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>103</v>
+        <v>349</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>57</v>
@@ -5068,7 +5104,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5087,7 +5123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE77D03D-9C07-42D5-8F39-297F3B7B8C79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218151D5-B32D-420B-9C4F-80AE8D5E874B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5104,7 +5140,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5211,13 +5247,13 @@
         <v>336304</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H4" s="7">
         <v>388</v>
@@ -5226,13 +5262,13 @@
         <v>431466</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="M4" s="7">
         <v>729</v>
@@ -5241,13 +5277,13 @@
         <v>767771</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5298,13 @@
         <v>268013</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H5" s="7">
         <v>323</v>
@@ -5277,13 +5313,13 @@
         <v>357638</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="M5" s="7">
         <v>592</v>
@@ -5292,13 +5328,13 @@
         <v>625651</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,13 +5349,13 @@
         <v>113226</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="H6" s="7">
         <v>143</v>
@@ -5328,13 +5364,13 @@
         <v>161733</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="M6" s="7">
         <v>257</v>
@@ -5343,13 +5379,13 @@
         <v>274959</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,13 +5400,13 @@
         <v>32814</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -5379,13 +5415,13 @@
         <v>31354</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -5394,13 +5430,13 @@
         <v>64168</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>378</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,13 +5451,13 @@
         <v>3990</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -5430,13 +5466,13 @@
         <v>11197</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>103</v>
+        <v>390</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -5445,13 +5481,13 @@
         <v>15187</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>385</v>
+        <v>309</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,13 +5555,13 @@
         <v>1002853</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="H10" s="7">
         <v>975</v>
@@ -5534,13 +5570,13 @@
         <v>1004678</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="M10" s="7">
         <v>1919</v>
@@ -5549,13 +5585,13 @@
         <v>2007531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,13 +5606,13 @@
         <v>739412</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="H11" s="7">
         <v>668</v>
@@ -5585,13 +5621,13 @@
         <v>698432</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M11" s="7">
         <v>1367</v>
@@ -5600,13 +5636,13 @@
         <v>1437844</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,13 +5657,13 @@
         <v>270581</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="H12" s="7">
         <v>222</v>
@@ -5636,13 +5672,13 @@
         <v>237641</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="M12" s="7">
         <v>475</v>
@@ -5651,13 +5687,13 @@
         <v>508222</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,13 +5708,13 @@
         <v>47020</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>97</v>
+        <v>422</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -5687,13 +5723,13 @@
         <v>31471</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>308</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -5702,13 +5738,13 @@
         <v>78492</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>56</v>
+        <v>425</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,13 +5759,13 @@
         <v>13016</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>420</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -5738,13 +5774,13 @@
         <v>11637</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>429</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>422</v>
+        <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -5753,13 +5789,13 @@
         <v>24654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,13 +5863,13 @@
         <v>305667</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="H16" s="7">
         <v>313</v>
@@ -5845,10 +5881,10 @@
         <v>65</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>435</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="M16" s="7">
         <v>596</v>
@@ -5857,13 +5893,13 @@
         <v>630752</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>438</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,13 +5914,13 @@
         <v>188978</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="H17" s="7">
         <v>160</v>
@@ -5893,13 +5929,13 @@
         <v>169109</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>444</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="M17" s="7">
         <v>332</v>
@@ -5908,13 +5944,13 @@
         <v>358087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,13 +5965,13 @@
         <v>50340</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
@@ -5944,13 +5980,13 @@
         <v>44268</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>45</v>
+        <v>452</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="M18" s="7">
         <v>87</v>
@@ -5959,13 +5995,13 @@
         <v>94608</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,7 +6022,7 @@
         <v>99</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>143</v>
+        <v>457</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -5995,13 +6031,13 @@
         <v>9743</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>264</v>
+        <v>458</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>305</v>
+        <v>459</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -6013,10 +6049,10 @@
         <v>57</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>386</v>
+        <v>461</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,10 +6070,10 @@
         <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>464</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6049,10 +6085,10 @@
         <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6064,7 +6100,7 @@
         <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>142</v>
@@ -6135,13 +6171,13 @@
         <v>1644824</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>450</v>
+        <v>395</v>
       </c>
       <c r="H22" s="7">
         <v>1676</v>
@@ -6150,13 +6186,13 @@
         <v>1761230</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="M22" s="7">
         <v>3244</v>
@@ -6165,13 +6201,13 @@
         <v>3406054</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6186,13 +6222,13 @@
         <v>1196403</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="H23" s="7">
         <v>1151</v>
@@ -6201,13 +6237,13 @@
         <v>1225179</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="M23" s="7">
         <v>2291</v>
@@ -6216,13 +6252,13 @@
         <v>2421582</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,13 +6273,13 @@
         <v>434147</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>208</v>
+        <v>485</v>
       </c>
       <c r="H24" s="7">
         <v>408</v>
@@ -6252,13 +6288,13 @@
         <v>443643</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="M24" s="7">
         <v>819</v>
@@ -6267,13 +6303,13 @@
         <v>877789</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6288,13 +6324,13 @@
         <v>80871</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>473</v>
+        <v>304</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>96</v>
+        <v>491</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -6303,13 +6339,13 @@
         <v>72569</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="M25" s="7">
         <v>141</v>
@@ -6318,13 +6354,13 @@
         <v>153440</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>224</v>
+        <v>495</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,13 +6375,13 @@
         <v>17006</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -6354,13 +6390,13 @@
         <v>22835</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>303</v>
+        <v>100</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -6369,13 +6405,13 @@
         <v>39841</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>227</v>
+        <v>504</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6431,7 +6467,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -6450,7 +6486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9D2E19-A9E4-4695-AEAC-B15DA50C8BEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEE8181-9E6A-412F-8BE3-DB7326476901}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6467,7 +6503,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6574,13 +6610,13 @@
         <v>241504</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="H4" s="7">
         <v>598</v>
@@ -6589,13 +6625,13 @@
         <v>353131</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="M4" s="7">
         <v>902</v>
@@ -6604,13 +6640,13 @@
         <v>594635</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,13 +6661,13 @@
         <v>159410</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="H5" s="7">
         <v>431</v>
@@ -6640,13 +6676,13 @@
         <v>258023</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="M5" s="7">
         <v>635</v>
@@ -6655,13 +6691,13 @@
         <v>417433</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,13 +6712,13 @@
         <v>78547</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="H6" s="7">
         <v>247</v>
@@ -6691,13 +6727,13 @@
         <v>134537</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="M6" s="7">
         <v>348</v>
@@ -6706,13 +6742,13 @@
         <v>213084</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6763,13 @@
         <v>44982</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>515</v>
+        <v>453</v>
       </c>
       <c r="H7" s="7">
         <v>102</v>
@@ -6742,13 +6778,13 @@
         <v>59482</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>516</v>
+        <v>49</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="M7" s="7">
         <v>163</v>
@@ -6757,13 +6793,13 @@
         <v>104464</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,13 +6814,13 @@
         <v>13401</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>387</v>
+        <v>540</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="H8" s="7">
         <v>34</v>
@@ -6793,13 +6829,13 @@
         <v>21231</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="M8" s="7">
         <v>51</v>
@@ -6808,13 +6844,13 @@
         <v>34632</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>527</v>
+        <v>219</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>425</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6882,13 +6918,13 @@
         <v>1156011</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="H10" s="7">
         <v>1484</v>
@@ -6897,13 +6933,13 @@
         <v>1143112</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="M10" s="7">
         <v>2457</v>
@@ -6912,13 +6948,13 @@
         <v>2299123</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>536</v>
+        <v>353</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,13 +6969,13 @@
         <v>749388</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="H11" s="7">
         <v>1057</v>
@@ -6948,13 +6984,13 @@
         <v>729881</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="M11" s="7">
         <v>1804</v>
@@ -6963,13 +6999,13 @@
         <v>1479269</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,13 +7020,13 @@
         <v>185973</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="H12" s="7">
         <v>245</v>
@@ -6999,13 +7035,13 @@
         <v>173910</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="M12" s="7">
         <v>430</v>
@@ -7014,13 +7050,13 @@
         <v>359883</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,13 +7071,13 @@
         <v>53209</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>556</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>477</v>
+        <v>344</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="H13" s="7">
         <v>99</v>
@@ -7050,13 +7086,13 @@
         <v>177632</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="M13" s="7">
         <v>166</v>
@@ -7065,13 +7101,13 @@
         <v>230842</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,13 +7122,13 @@
         <v>17441</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>579</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -7101,13 +7137,13 @@
         <v>18241</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>579</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>103</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>565</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>46</v>
@@ -7116,10 +7152,10 @@
         <v>35683</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>579</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>54</v>
@@ -7190,13 +7226,13 @@
         <v>403492</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="H16" s="7">
         <v>654</v>
@@ -7205,13 +7241,13 @@
         <v>482658</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="M16" s="7">
         <v>1055</v>
@@ -7220,13 +7256,13 @@
         <v>886150</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,13 +7277,13 @@
         <v>205242</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>250</v>
+        <v>592</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="H17" s="7">
         <v>284</v>
@@ -7256,13 +7292,13 @@
         <v>181151</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>579</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>501</v>
@@ -7271,13 +7307,13 @@
         <v>386392</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7292,13 +7328,13 @@
         <v>37434</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
@@ -7307,13 +7343,13 @@
         <v>36804</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>586</v>
+        <v>138</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="M18" s="7">
         <v>85</v>
@@ -7322,13 +7358,13 @@
         <v>74238</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7343,13 +7379,13 @@
         <v>16573</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>342</v>
+        <v>605</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -7358,13 +7394,13 @@
         <v>8281</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -7373,13 +7409,13 @@
         <v>24853</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>595</v>
+        <v>273</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>262</v>
+        <v>610</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7394,13 +7430,13 @@
         <v>7664</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>146</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -7409,13 +7445,13 @@
         <v>2682</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>105</v>
+        <v>464</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>230</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -7424,13 +7460,13 @@
         <v>10346</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>52</v>
+        <v>614</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>599</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7498,13 +7534,13 @@
         <v>1801007</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="H22" s="7">
         <v>2736</v>
@@ -7513,13 +7549,13 @@
         <v>1978901</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="M22" s="7">
         <v>4414</v>
@@ -7528,13 +7564,13 @@
         <v>3779909</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>393</v>
+        <v>621</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7549,13 +7585,13 @@
         <v>1114039</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="H23" s="7">
         <v>1772</v>
@@ -7564,13 +7600,13 @@
         <v>1169055</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
       <c r="M23" s="7">
         <v>2940</v>
@@ -7579,13 +7615,13 @@
         <v>2283095</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>615</v>
+        <v>247</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7600,13 +7636,13 @@
         <v>301954</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="H24" s="7">
         <v>538</v>
@@ -7615,13 +7651,13 @@
         <v>345251</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="M24" s="7">
         <v>863</v>
@@ -7630,13 +7666,13 @@
         <v>647205</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7651,13 +7687,13 @@
         <v>114764</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>626</v>
+        <v>267</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>628</v>
+        <v>183</v>
       </c>
       <c r="H25" s="7">
         <v>214</v>
@@ -7666,13 +7702,13 @@
         <v>245395</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="M25" s="7">
         <v>359</v>
@@ -7681,13 +7717,13 @@
         <v>360159</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>626</v>
+        <v>267</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7702,13 +7738,13 @@
         <v>38507</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>272</v>
+        <v>579</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="H26" s="7">
         <v>64</v>
@@ -7717,13 +7753,13 @@
         <v>42154</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>635</v>
+        <v>147</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>53</v>
+        <v>426</v>
       </c>
       <c r="M26" s="7">
         <v>105</v>
@@ -7732,13 +7768,13 @@
         <v>80661</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>147</v>
+        <v>648</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>636</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7794,7 +7830,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5710-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5710-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C6AABC9-81F4-4E41-816F-59D696433430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82717D3D-E32A-47BE-841B-BFFF9F18FFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E33F8456-8CB8-43A4-9DE1-B1A0AF51C959}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8B49AECD-DCD1-4655-9DAF-31EE43AF2D60}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="639">
   <si>
     <t>Población según la frecuencia de recibir consejos útiles cuando me ocurre algún acontecimiento importante en mi vida en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1915 +77,1885 @@
     <t>49,87%</t>
   </si>
   <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
   </si>
   <si>
     <t>48,6%</t>
   </si>
   <si>
-    <t>46,05%</t>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>Casi como deseo</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>Ni mucho ni poco</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>Menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir consejos útiles cuando me ocurre algún acontecimiento importante en mi vida en 2012 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir consejos útiles cuando me ocurre algún acontecimiento importante en mi vida en 2016 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
   </si>
   <si>
     <t>51,13%</t>
   </si>
   <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>Casi como deseo</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>Ni mucho ni poco</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>Menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir consejos útiles cuando me ocurre algún acontecimiento importante en mi vida en 2023 (Tasa respuesta: 99,52%)</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
   </si>
   <si>
     <t>8,86%</t>
   </si>
   <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir consejos útiles cuando me ocurre algún acontecimiento importante en mi vida en 2012 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
   </si>
   <si>
     <t>30,67%</t>
   </si>
   <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir consejos útiles cuando me ocurre algún acontecimiento importante en mi vida en 2016 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir consejos útiles cuando me ocurre algún acontecimiento importante en mi vida en 2023 (Tasa respuesta: 99,52%)</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>0,9%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
   </si>
 </sst>
 </file>
@@ -2397,7 +2367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1188CCB6-19E8-44C1-9F9E-5F198018B857}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8601042B-293A-4903-AB1A-5456406F0BEC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2826,7 +2796,7 @@
         <v>1051</v>
       </c>
       <c r="D10" s="7">
-        <v>1092939</v>
+        <v>1092938</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -2898,10 +2868,10 @@
         <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>831</v>
@@ -2910,13 +2880,13 @@
         <v>837142</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,13 +2901,13 @@
         <v>148880</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>170</v>
@@ -2946,13 +2916,13 @@
         <v>178761</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>319</v>
@@ -2961,13 +2931,13 @@
         <v>327641</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +2952,13 @@
         <v>32157</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -2997,13 +2967,13 @@
         <v>44555</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -3012,13 +2982,13 @@
         <v>76712</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,13 +3003,13 @@
         <v>2026</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3048,13 +3018,13 @@
         <v>3200</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -3063,13 +3033,13 @@
         <v>5227</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,7 +3051,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3125,7 +3095,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3137,13 +3107,13 @@
         <v>337579</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>287</v>
@@ -3152,13 +3122,13 @@
         <v>300968</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>611</v>
@@ -3167,13 +3137,13 @@
         <v>638547</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3158,13 @@
         <v>152914</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>118</v>
@@ -3203,13 +3173,13 @@
         <v>124111</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>264</v>
@@ -3218,13 +3188,13 @@
         <v>277025</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3209,13 @@
         <v>48063</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>37</v>
@@ -3254,13 +3224,13 @@
         <v>40020</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>81</v>
@@ -3269,13 +3239,13 @@
         <v>88083</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3260,13 @@
         <v>10700</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -3305,13 +3275,13 @@
         <v>9791</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -3320,13 +3290,13 @@
         <v>20491</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3311,13 @@
         <v>1067</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3356,13 +3326,13 @@
         <v>1522</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3371,13 +3341,13 @@
         <v>2589</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3415,13 @@
         <v>1945016</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>1847</v>
@@ -3460,13 +3430,13 @@
         <v>1881582</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>3746</v>
@@ -3475,13 +3445,13 @@
         <v>3826597</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3466,13 @@
         <v>846731</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>858</v>
@@ -3511,13 +3481,13 @@
         <v>878047</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>1696</v>
@@ -3526,13 +3496,13 @@
         <v>1724778</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3517,13 @@
         <v>383432</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>433</v>
@@ -3562,13 +3532,13 @@
         <v>449729</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>812</v>
@@ -3577,13 +3547,13 @@
         <v>833161</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3568,13 @@
         <v>89602</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>140</v>
@@ -3613,13 +3583,13 @@
         <v>149386</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>227</v>
@@ -3628,13 +3598,13 @@
         <v>238988</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3619,13 @@
         <v>10678</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -3664,13 +3634,13 @@
         <v>20455</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>29</v>
@@ -3679,13 +3649,13 @@
         <v>31132</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>58</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,7 +3711,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3760,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86751E51-B984-4ECD-9C7E-88547B1A50C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F07014-8094-483C-A637-BF86AA738DB5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3777,7 +3747,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3884,13 +3854,13 @@
         <v>530236</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H4" s="7">
         <v>643</v>
@@ -3899,13 +3869,13 @@
         <v>687303</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M4" s="7">
         <v>1141</v>
@@ -3914,13 +3884,13 @@
         <v>1217540</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3905,13 @@
         <v>260322</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H5" s="7">
         <v>401</v>
@@ -3950,13 +3920,13 @@
         <v>433464</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M5" s="7">
         <v>641</v>
@@ -3965,13 +3935,13 @@
         <v>693786</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3956,13 @@
         <v>136420</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H6" s="7">
         <v>148</v>
@@ -4001,13 +3971,13 @@
         <v>157889</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M6" s="7">
         <v>273</v>
@@ -4016,13 +3986,13 @@
         <v>294309</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4007,13 @@
         <v>34585</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -4052,13 +4022,13 @@
         <v>31526</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -4067,13 +4037,13 @@
         <v>66111</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4058,13 @@
         <v>8104</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -4103,13 +4073,13 @@
         <v>21426</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -4118,13 +4088,13 @@
         <v>29531</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,16 +4159,16 @@
         <v>1146</v>
       </c>
       <c r="D10" s="7">
-        <v>1201894</v>
+        <v>1201893</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H10" s="7">
         <v>958</v>
@@ -4207,13 +4177,13 @@
         <v>1026634</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M10" s="7">
         <v>2104</v>
@@ -4222,13 +4192,13 @@
         <v>2228527</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,16 +4210,16 @@
         <v>510</v>
       </c>
       <c r="D11" s="7">
-        <v>550103</v>
+        <v>550102</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H11" s="7">
         <v>467</v>
@@ -4258,13 +4228,13 @@
         <v>497425</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M11" s="7">
         <v>977</v>
@@ -4273,13 +4243,13 @@
         <v>1047528</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>253</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4264,13 @@
         <v>164221</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H12" s="7">
         <v>161</v>
@@ -4309,13 +4279,13 @@
         <v>177364</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>258</v>
+        <v>46</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M12" s="7">
         <v>317</v>
@@ -4324,13 +4294,13 @@
         <v>341585</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4315,13 @@
         <v>38520</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -4360,13 +4330,13 @@
         <v>43409</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>96</v>
+        <v>263</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -4375,13 +4345,13 @@
         <v>81929</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4366,13 @@
         <v>6964</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -4411,13 +4381,13 @@
         <v>11871</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -4426,13 +4396,13 @@
         <v>18835</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,7 +4414,7 @@
         <v>1854</v>
       </c>
       <c r="D15" s="7">
-        <v>1961702</v>
+        <v>1961701</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -4488,7 +4458,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4500,13 +4470,13 @@
         <v>313427</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H16" s="7">
         <v>288</v>
@@ -4515,13 +4485,13 @@
         <v>316938</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M16" s="7">
         <v>574</v>
@@ -4530,13 +4500,13 @@
         <v>630365</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4521,13 @@
         <v>121962</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H17" s="7">
         <v>93</v>
@@ -4566,13 +4536,13 @@
         <v>104367</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M17" s="7">
         <v>203</v>
@@ -4581,13 +4551,13 @@
         <v>226329</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>287</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,13 +4572,13 @@
         <v>37550</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -4617,13 +4587,13 @@
         <v>31312</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M18" s="7">
         <v>59</v>
@@ -4632,13 +4602,13 @@
         <v>68861</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,13 +4623,13 @@
         <v>5249</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4668,13 +4638,13 @@
         <v>1909</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4683,13 +4653,13 @@
         <v>7159</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4674,13 @@
         <v>897</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4719,13 +4689,13 @@
         <v>2160</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -4734,13 +4704,13 @@
         <v>3057</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>309</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4778,13 @@
         <v>2045556</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>309</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H22" s="7">
         <v>1889</v>
@@ -4823,13 +4793,13 @@
         <v>2030875</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M22" s="7">
         <v>3819</v>
@@ -4838,13 +4808,13 @@
         <v>4076431</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4829,13 @@
         <v>932387</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H23" s="7">
         <v>961</v>
@@ -4874,13 +4844,13 @@
         <v>1035256</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M23" s="7">
         <v>1821</v>
@@ -4889,13 +4859,13 @@
         <v>1967643</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4880,13 @@
         <v>338191</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="H24" s="7">
         <v>334</v>
@@ -4925,13 +4895,13 @@
         <v>366564</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M24" s="7">
         <v>649</v>
@@ -4940,13 +4910,13 @@
         <v>704756</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4931,13 @@
         <v>78355</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -4976,13 +4946,13 @@
         <v>76845</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>339</v>
       </c>
       <c r="M25" s="7">
         <v>142</v>
@@ -4991,13 +4961,13 @@
         <v>155200</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>343</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,13 +4982,13 @@
         <v>15965</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
@@ -5027,13 +4997,13 @@
         <v>35458</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>272</v>
+        <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M26" s="7">
         <v>48</v>
@@ -5045,10 +5015,10 @@
         <v>51</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>57</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,7 +5074,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5123,7 +5093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218151D5-B32D-420B-9C4F-80AE8D5E874B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89616714-A768-458D-80D6-A9C0659FC428}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5140,7 +5110,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5247,13 +5217,13 @@
         <v>336304</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H4" s="7">
         <v>388</v>
@@ -5262,13 +5232,13 @@
         <v>431466</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M4" s="7">
         <v>729</v>
@@ -5277,13 +5247,13 @@
         <v>767771</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5268,13 @@
         <v>268013</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H5" s="7">
         <v>323</v>
@@ -5313,13 +5283,13 @@
         <v>357638</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M5" s="7">
         <v>592</v>
@@ -5328,13 +5298,13 @@
         <v>625651</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5319,13 @@
         <v>113226</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H6" s="7">
         <v>143</v>
@@ -5364,13 +5334,13 @@
         <v>161733</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M6" s="7">
         <v>257</v>
@@ -5379,13 +5349,13 @@
         <v>274959</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5370,13 @@
         <v>32814</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -5415,13 +5385,13 @@
         <v>31354</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -5430,13 +5400,13 @@
         <v>64168</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5421,13 @@
         <v>3990</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -5466,13 +5436,13 @@
         <v>11197</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>390</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>391</v>
+        <v>337</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -5481,13 +5451,13 @@
         <v>15187</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>309</v>
+        <v>145</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5525,13 @@
         <v>1002853</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="H10" s="7">
         <v>975</v>
@@ -5570,13 +5540,13 @@
         <v>1004678</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M10" s="7">
         <v>1919</v>
@@ -5585,13 +5555,13 @@
         <v>2007531</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,13 +5576,13 @@
         <v>739412</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H11" s="7">
         <v>668</v>
@@ -5621,13 +5591,13 @@
         <v>698432</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M11" s="7">
         <v>1367</v>
@@ -5636,13 +5606,13 @@
         <v>1437844</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,13 +5627,13 @@
         <v>270581</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H12" s="7">
         <v>222</v>
@@ -5672,13 +5642,13 @@
         <v>237641</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M12" s="7">
         <v>475</v>
@@ -5687,13 +5657,13 @@
         <v>508222</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +5678,13 @@
         <v>47020</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -5723,13 +5693,13 @@
         <v>31471</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>308</v>
+        <v>421</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -5738,13 +5708,13 @@
         <v>78492</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,7 +5732,7 @@
         <v>427</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>142</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>428</v>
@@ -5774,13 +5744,13 @@
         <v>11637</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -5789,13 +5759,13 @@
         <v>24654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>431</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,7 +5821,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5863,13 +5833,13 @@
         <v>305667</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="H16" s="7">
         <v>313</v>
@@ -5881,10 +5851,10 @@
         <v>65</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>435</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M16" s="7">
         <v>596</v>
@@ -5893,13 +5863,13 @@
         <v>630752</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,13 +5884,13 @@
         <v>188978</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H17" s="7">
         <v>160</v>
@@ -5929,13 +5899,13 @@
         <v>169109</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M17" s="7">
         <v>332</v>
@@ -5944,13 +5914,13 @@
         <v>358087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5965,13 +5935,13 @@
         <v>50340</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
@@ -5980,13 +5950,13 @@
         <v>44268</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="M18" s="7">
         <v>87</v>
@@ -5995,13 +5965,13 @@
         <v>94608</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,13 +5986,13 @@
         <v>1036</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -6031,13 +6001,13 @@
         <v>9743</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -6049,10 +6019,10 @@
         <v>57</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>461</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>462</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,13 +6037,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6082,13 +6052,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6097,13 +6067,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,13 +6141,13 @@
         <v>1644824</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>466</v>
+        <v>194</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>395</v>
+        <v>462</v>
       </c>
       <c r="H22" s="7">
         <v>1676</v>
@@ -6186,13 +6156,13 @@
         <v>1761230</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="M22" s="7">
         <v>3244</v>
@@ -6201,13 +6171,13 @@
         <v>3406054</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,13 +6192,13 @@
         <v>1196403</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="H23" s="7">
         <v>1151</v>
@@ -6237,13 +6207,13 @@
         <v>1225179</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="M23" s="7">
         <v>2291</v>
@@ -6252,13 +6222,13 @@
         <v>2421582</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6243,13 @@
         <v>434147</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>484</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>485</v>
+        <v>208</v>
       </c>
       <c r="H24" s="7">
         <v>408</v>
@@ -6288,13 +6258,13 @@
         <v>443643</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>487</v>
+        <v>416</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="M24" s="7">
         <v>819</v>
@@ -6303,13 +6273,13 @@
         <v>877789</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>212</v>
+        <v>482</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6294,13 @@
         <v>80871</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>304</v>
+        <v>218</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>491</v>
+        <v>132</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>492</v>
+        <v>420</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -6339,13 +6309,13 @@
         <v>72569</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>493</v>
+        <v>229</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="M25" s="7">
         <v>141</v>
@@ -6354,13 +6324,13 @@
         <v>153440</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>497</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6345,13 @@
         <v>17006</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>499</v>
+        <v>52</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -6390,13 +6360,13 @@
         <v>22835</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>100</v>
+        <v>301</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>502</v>
+        <v>344</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -6405,13 +6375,13 @@
         <v>39841</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>504</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6467,7 +6437,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -6486,7 +6456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEE8181-9E6A-412F-8BE3-DB7326476901}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796461B9-7A95-4A58-BBBD-A92E438D027D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6503,7 +6473,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6610,13 +6580,13 @@
         <v>241504</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="H4" s="7">
         <v>598</v>
@@ -6625,13 +6595,13 @@
         <v>353131</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="M4" s="7">
         <v>902</v>
@@ -6640,13 +6610,13 @@
         <v>594635</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6631,13 @@
         <v>159410</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>516</v>
+        <v>158</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="H5" s="7">
         <v>431</v>
@@ -6676,13 +6646,13 @@
         <v>258023</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="M5" s="7">
         <v>635</v>
@@ -6691,13 +6661,13 @@
         <v>417433</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6682,13 @@
         <v>78547</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="H6" s="7">
         <v>247</v>
@@ -6727,13 +6697,13 @@
         <v>134537</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="M6" s="7">
         <v>348</v>
@@ -6742,13 +6712,13 @@
         <v>213084</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,13 +6733,13 @@
         <v>44982</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H7" s="7">
         <v>102</v>
@@ -6778,13 +6748,13 @@
         <v>59482</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>49</v>
+        <v>519</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="M7" s="7">
         <v>163</v>
@@ -6793,13 +6763,13 @@
         <v>104464</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6814,13 +6784,13 @@
         <v>13401</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="H8" s="7">
         <v>34</v>
@@ -6829,13 +6799,13 @@
         <v>21231</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>543</v>
+        <v>455</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="M8" s="7">
         <v>51</v>
@@ -6844,13 +6814,13 @@
         <v>34632</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>219</v>
+        <v>530</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>425</v>
+        <v>531</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,13 +6888,13 @@
         <v>1156011</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="H10" s="7">
         <v>1484</v>
@@ -6933,13 +6903,13 @@
         <v>1143112</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="M10" s="7">
         <v>2457</v>
@@ -6948,13 +6918,13 @@
         <v>2299123</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>353</v>
+        <v>540</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6969,13 +6939,13 @@
         <v>749388</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="H11" s="7">
         <v>1057</v>
@@ -6984,13 +6954,13 @@
         <v>729881</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="M11" s="7">
         <v>1804</v>
@@ -6999,13 +6969,13 @@
         <v>1479269</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7020,13 +6990,13 @@
         <v>185973</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="H12" s="7">
         <v>245</v>
@@ -7035,13 +7005,13 @@
         <v>173910</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>567</v>
+        <v>518</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="M12" s="7">
         <v>430</v>
@@ -7050,13 +7020,13 @@
         <v>359883</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7071,13 +7041,13 @@
         <v>53209</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>232</v>
+        <v>559</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="H13" s="7">
         <v>99</v>
@@ -7086,13 +7056,13 @@
         <v>177632</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>574</v>
+        <v>336</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="M13" s="7">
         <v>166</v>
@@ -7101,13 +7071,13 @@
         <v>230842</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7122,13 +7092,13 @@
         <v>17441</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>579</v>
+        <v>456</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>392</v>
+        <v>566</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -7137,13 +7107,13 @@
         <v>18241</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>579</v>
+        <v>456</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>568</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>46</v>
@@ -7152,13 +7122,13 @@
         <v>35683</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>579</v>
+        <v>456</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>581</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>569</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7214,7 +7184,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7226,13 +7196,13 @@
         <v>403492</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="H16" s="7">
         <v>654</v>
@@ -7241,13 +7211,13 @@
         <v>482658</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="M16" s="7">
         <v>1055</v>
@@ -7256,13 +7226,13 @@
         <v>886150</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,13 +7247,13 @@
         <v>205242</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="H17" s="7">
         <v>284</v>
@@ -7292,13 +7262,13 @@
         <v>181151</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>583</v>
       </c>
       <c r="M17" s="7">
         <v>501</v>
@@ -7307,13 +7277,13 @@
         <v>386392</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>558</v>
+        <v>584</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,13 +7298,13 @@
         <v>37434</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>599</v>
+        <v>290</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
@@ -7343,13 +7313,13 @@
         <v>36804</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>138</v>
+        <v>590</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="M18" s="7">
         <v>85</v>
@@ -7358,13 +7328,13 @@
         <v>74238</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7349,13 @@
         <v>16573</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>605</v>
+        <v>53</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -7394,13 +7364,13 @@
         <v>8281</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>607</v>
+        <v>569</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>185</v>
+        <v>427</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -7409,13 +7379,13 @@
         <v>24853</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7430,13 +7400,13 @@
         <v>7664</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>612</v>
+        <v>176</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -7445,13 +7415,13 @@
         <v>2682</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>311</v>
+        <v>600</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -7460,13 +7430,13 @@
         <v>10346</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>613</v>
+        <v>343</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>614</v>
+        <v>342</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>424</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,13 +7504,13 @@
         <v>1801007</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="H22" s="7">
         <v>2736</v>
@@ -7549,28 +7519,28 @@
         <v>1978901</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="M22" s="7">
         <v>4414</v>
       </c>
       <c r="N22" s="7">
-        <v>3779909</v>
+        <v>3779907</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7585,13 +7555,13 @@
         <v>1114039</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="H23" s="7">
         <v>1772</v>
@@ -7600,28 +7570,28 @@
         <v>1169055</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>628</v>
+        <v>26</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="M23" s="7">
         <v>2940</v>
       </c>
       <c r="N23" s="7">
-        <v>2283095</v>
+        <v>2283094</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>247</v>
+        <v>616</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7636,13 +7606,13 @@
         <v>301954</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="H24" s="7">
         <v>538</v>
@@ -7651,13 +7621,13 @@
         <v>345251</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="M24" s="7">
         <v>863</v>
@@ -7666,13 +7636,13 @@
         <v>647205</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7687,13 +7657,13 @@
         <v>114764</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>267</v>
+        <v>134</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>183</v>
+        <v>628</v>
       </c>
       <c r="H25" s="7">
         <v>214</v>
@@ -7702,13 +7672,13 @@
         <v>245395</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="M25" s="7">
         <v>359</v>
@@ -7717,13 +7687,13 @@
         <v>360159</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>267</v>
+        <v>633</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,13 +7708,13 @@
         <v>38507</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>579</v>
+        <v>635</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="H26" s="7">
         <v>64</v>
@@ -7753,13 +7723,13 @@
         <v>42154</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>147</v>
+        <v>226</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>426</v>
+        <v>304</v>
       </c>
       <c r="M26" s="7">
         <v>105</v>
@@ -7768,13 +7738,13 @@
         <v>80661</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>348</v>
+        <v>638</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7816,7 +7786,7 @@
         <v>8681</v>
       </c>
       <c r="N27" s="7">
-        <v>7151028</v>
+        <v>7151026</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -7830,7 +7800,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5710-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5710-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82717D3D-E32A-47BE-841B-BFFF9F18FFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CF7438C-CEFE-4C2F-9091-2BDDEB4BBEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8B49AECD-DCD1-4655-9DAF-31EE43AF2D60}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3C81CAC3-96D2-4B3B-9B3B-3935CFF71709}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="635">
   <si>
     <t>Población según la frecuencia de recibir consejos útiles cuando me ocurre algún acontecimiento importante en mi vida en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -1517,445 +1517,433 @@
     <t>Población según la frecuencia de recibir consejos útiles cuando me ocurre algún acontecimiento importante en mi vida en 2023 (Tasa respuesta: 99,52%)</t>
   </si>
   <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
   </si>
   <si>
     <t>29,64%</t>
   </si>
   <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
   </si>
   <si>
     <t>25,74%</t>
   </si>
   <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
   </si>
 </sst>
 </file>
@@ -2367,7 +2355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8601042B-293A-4903-AB1A-5456406F0BEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D258F1A-1088-4DC7-B65A-124F747E0D56}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2569,7 +2557,7 @@
         <v>601</v>
       </c>
       <c r="N5" s="7">
-        <v>610611</v>
+        <v>610610</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2773,7 +2761,7 @@
         <v>2329</v>
       </c>
       <c r="N9" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -2796,7 +2784,7 @@
         <v>1051</v>
       </c>
       <c r="D10" s="7">
-        <v>1092938</v>
+        <v>1092939</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -3051,7 +3039,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3427,7 +3415,7 @@
         <v>1847</v>
       </c>
       <c r="I22" s="7">
-        <v>1881582</v>
+        <v>1881581</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>149</v>
@@ -3682,7 +3670,7 @@
         <v>3297</v>
       </c>
       <c r="I27" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -3730,7 +3718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F07014-8094-483C-A637-BF86AA738DB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0630D54B-7C80-4F25-8515-AD380AD6B219}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5093,7 +5081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89616714-A768-458D-80D6-A9C0659FC428}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B76F6FE-3A6F-4D20-ABA1-E4E2CD1F3414}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6456,7 +6444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796461B9-7A95-4A58-BBBD-A92E438D027D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77119522-A882-48AA-A5C7-5E5E5F025E95}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6577,7 +6565,7 @@
         <v>304</v>
       </c>
       <c r="D4" s="7">
-        <v>241504</v>
+        <v>235353</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>492</v>
@@ -6592,7 +6580,7 @@
         <v>598</v>
       </c>
       <c r="I4" s="7">
-        <v>353131</v>
+        <v>326294</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>495</v>
@@ -6601,22 +6589,22 @@
         <v>496</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>497</v>
+        <v>354</v>
       </c>
       <c r="M4" s="7">
         <v>902</v>
       </c>
       <c r="N4" s="7">
-        <v>594635</v>
+        <v>561647</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,13 +6616,13 @@
         <v>204</v>
       </c>
       <c r="D5" s="7">
-        <v>159410</v>
+        <v>150155</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>502</v>
@@ -6643,7 +6631,7 @@
         <v>431</v>
       </c>
       <c r="I5" s="7">
-        <v>258023</v>
+        <v>228650</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>503</v>
@@ -6658,7 +6646,7 @@
         <v>635</v>
       </c>
       <c r="N5" s="7">
-        <v>417433</v>
+        <v>378805</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>506</v>
@@ -6679,7 +6667,7 @@
         <v>101</v>
       </c>
       <c r="D6" s="7">
-        <v>78547</v>
+        <v>73144</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>509</v>
@@ -6694,31 +6682,31 @@
         <v>247</v>
       </c>
       <c r="I6" s="7">
-        <v>134537</v>
+        <v>121191</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>370</v>
+        <v>512</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M6" s="7">
         <v>348</v>
       </c>
       <c r="N6" s="7">
-        <v>213084</v>
+        <v>194335</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,46 +6718,46 @@
         <v>61</v>
       </c>
       <c r="D7" s="7">
-        <v>44982</v>
+        <v>40663</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>451</v>
+        <v>520</v>
       </c>
       <c r="H7" s="7">
         <v>102</v>
       </c>
       <c r="I7" s="7">
-        <v>59482</v>
+        <v>52111</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M7" s="7">
         <v>163</v>
       </c>
       <c r="N7" s="7">
-        <v>104464</v>
+        <v>92774</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6781,46 +6769,46 @@
         <v>17</v>
       </c>
       <c r="D8" s="7">
-        <v>13401</v>
+        <v>12184</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="H8" s="7">
         <v>34</v>
       </c>
       <c r="I8" s="7">
-        <v>21231</v>
+        <v>18662</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>528</v>
+        <v>231</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>455</v>
+        <v>530</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="M8" s="7">
         <v>51</v>
       </c>
       <c r="N8" s="7">
-        <v>34632</v>
+        <v>30847</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,7 +6820,7 @@
         <v>687</v>
       </c>
       <c r="D9" s="7">
-        <v>537844</v>
+        <v>511500</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -6847,7 +6835,7 @@
         <v>1412</v>
       </c>
       <c r="I9" s="7">
-        <v>826404</v>
+        <v>746909</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -6862,7 +6850,7 @@
         <v>2099</v>
       </c>
       <c r="N9" s="7">
-        <v>1364248</v>
+        <v>1258409</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -6885,43 +6873,43 @@
         <v>973</v>
       </c>
       <c r="D10" s="7">
-        <v>1156011</v>
+        <v>1348073</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>534</v>
+        <v>396</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H10" s="7">
         <v>1484</v>
       </c>
       <c r="I10" s="7">
-        <v>1143112</v>
+        <v>1139604</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M10" s="7">
         <v>2457</v>
       </c>
       <c r="N10" s="7">
-        <v>2299123</v>
+        <v>2487676</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>540</v>
+        <v>467</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>541</v>
@@ -6936,46 +6924,46 @@
         <v>747</v>
       </c>
       <c r="D11" s="7">
-        <v>749388</v>
+        <v>703702</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="H11" s="7">
         <v>1057</v>
       </c>
       <c r="I11" s="7">
-        <v>729881</v>
+        <v>654165</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="M11" s="7">
         <v>1804</v>
       </c>
       <c r="N11" s="7">
-        <v>1479269</v>
+        <v>1357867</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>549</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>550</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6987,46 +6975,46 @@
         <v>185</v>
       </c>
       <c r="D12" s="7">
-        <v>185973</v>
+        <v>174674</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>553</v>
+        <v>257</v>
       </c>
       <c r="H12" s="7">
         <v>245</v>
       </c>
       <c r="I12" s="7">
-        <v>173910</v>
+        <v>157091</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M12" s="7">
         <v>430</v>
       </c>
       <c r="N12" s="7">
-        <v>359883</v>
+        <v>331765</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>557</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,46 +7026,46 @@
         <v>67</v>
       </c>
       <c r="D13" s="7">
-        <v>53209</v>
+        <v>48402</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>560</v>
+        <v>339</v>
       </c>
       <c r="H13" s="7">
         <v>99</v>
       </c>
       <c r="I13" s="7">
-        <v>177632</v>
+        <v>264184</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>336</v>
+        <v>558</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="M13" s="7">
         <v>166</v>
       </c>
       <c r="N13" s="7">
-        <v>230842</v>
+        <v>312586</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,46 +7077,46 @@
         <v>20</v>
       </c>
       <c r="D14" s="7">
-        <v>17441</v>
+        <v>15476</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>456</v>
+        <v>267</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>566</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>567</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
       </c>
       <c r="I14" s="7">
-        <v>18241</v>
+        <v>16371</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>565</v>
       </c>
       <c r="M14" s="7">
         <v>46</v>
       </c>
       <c r="N14" s="7">
-        <v>35683</v>
+        <v>31848</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>456</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>182</v>
+        <v>487</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7140,7 +7128,7 @@
         <v>1992</v>
       </c>
       <c r="D15" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -7155,7 +7143,7 @@
         <v>2911</v>
       </c>
       <c r="I15" s="7">
-        <v>2242777</v>
+        <v>2231415</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -7170,7 +7158,7 @@
         <v>4903</v>
       </c>
       <c r="N15" s="7">
-        <v>4404799</v>
+        <v>4521742</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7193,46 +7181,46 @@
         <v>401</v>
       </c>
       <c r="D16" s="7">
-        <v>403492</v>
+        <v>391250</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="H16" s="7">
         <v>654</v>
       </c>
       <c r="I16" s="7">
-        <v>482658</v>
+        <v>449503</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="M16" s="7">
         <v>1055</v>
       </c>
       <c r="N16" s="7">
-        <v>886150</v>
+        <v>840753</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>576</v>
+        <v>62</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,46 +7232,46 @@
         <v>217</v>
       </c>
       <c r="D17" s="7">
-        <v>205242</v>
+        <v>190280</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H17" s="7">
         <v>284</v>
       </c>
       <c r="I17" s="7">
-        <v>181151</v>
+        <v>165131</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>578</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>583</v>
+        <v>244</v>
       </c>
       <c r="M17" s="7">
         <v>501</v>
       </c>
       <c r="N17" s="7">
-        <v>386392</v>
+        <v>355411</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,46 +7283,46 @@
         <v>39</v>
       </c>
       <c r="D18" s="7">
-        <v>37434</v>
+        <v>35059</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>290</v>
+        <v>585</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
       </c>
       <c r="I18" s="7">
-        <v>36804</v>
+        <v>33724</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="M18" s="7">
         <v>85</v>
       </c>
       <c r="N18" s="7">
-        <v>74238</v>
+        <v>68783</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,46 +7334,46 @@
         <v>17</v>
       </c>
       <c r="D19" s="7">
-        <v>16573</v>
+        <v>15942</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>262</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>53</v>
+        <v>592</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>8281</v>
+        <v>7605</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>569</v>
+        <v>594</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>427</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
       </c>
       <c r="N19" s="7">
-        <v>24853</v>
+        <v>23547</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>597</v>
+        <v>335</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>269</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>598</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7397,28 +7385,28 @@
         <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>7664</v>
+        <v>11641</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>599</v>
+        <v>335</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>596</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>2682</v>
+        <v>2469</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>459</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>145</v>
@@ -7427,16 +7415,16 @@
         <v>8</v>
       </c>
       <c r="N20" s="7">
-        <v>10346</v>
+        <v>14110</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>343</v>
+        <v>598</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>342</v>
+        <v>52</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>56</v>
+        <v>599</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7448,7 +7436,7 @@
         <v>678</v>
       </c>
       <c r="D21" s="7">
-        <v>670405</v>
+        <v>644172</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -7463,7 +7451,7 @@
         <v>1001</v>
       </c>
       <c r="I21" s="7">
-        <v>711575</v>
+        <v>658432</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -7478,7 +7466,7 @@
         <v>1679</v>
       </c>
       <c r="N21" s="7">
-        <v>1381980</v>
+        <v>1302604</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -7501,46 +7489,46 @@
         <v>1678</v>
       </c>
       <c r="D22" s="7">
-        <v>1801007</v>
+        <v>1974676</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>603</v>
       </c>
       <c r="H22" s="7">
         <v>2736</v>
       </c>
       <c r="I22" s="7">
-        <v>1978901</v>
+        <v>1915401</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>605</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>606</v>
       </c>
       <c r="M22" s="7">
         <v>4414</v>
       </c>
       <c r="N22" s="7">
-        <v>3779907</v>
+        <v>3890076</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>608</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>609</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,46 +7540,46 @@
         <v>1168</v>
       </c>
       <c r="D23" s="7">
-        <v>1114039</v>
+        <v>1044137</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="H23" s="7">
         <v>1772</v>
       </c>
       <c r="I23" s="7">
-        <v>1169055</v>
+        <v>1047946</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>614</v>
       </c>
       <c r="M23" s="7">
         <v>2940</v>
       </c>
       <c r="N23" s="7">
-        <v>2283094</v>
+        <v>2092083</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7603,46 +7591,46 @@
         <v>325</v>
       </c>
       <c r="D24" s="7">
-        <v>301954</v>
+        <v>282878</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>618</v>
+        <v>258</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H24" s="7">
         <v>538</v>
       </c>
       <c r="I24" s="7">
-        <v>345251</v>
+        <v>312006</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>621</v>
+        <v>129</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="M24" s="7">
         <v>863</v>
       </c>
       <c r="N24" s="7">
-        <v>647205</v>
+        <v>594884</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>624</v>
+        <v>126</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7654,46 +7642,46 @@
         <v>145</v>
       </c>
       <c r="D25" s="7">
-        <v>114764</v>
+        <v>105007</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>134</v>
+        <v>622</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>627</v>
+        <v>94</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="H25" s="7">
         <v>214</v>
       </c>
       <c r="I25" s="7">
-        <v>245395</v>
+        <v>323900</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="M25" s="7">
         <v>359</v>
       </c>
       <c r="N25" s="7">
-        <v>360159</v>
+        <v>428907</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7705,46 +7693,46 @@
         <v>41</v>
       </c>
       <c r="D26" s="7">
-        <v>38507</v>
+        <v>39301</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>599</v>
+        <v>630</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>635</v>
+        <v>563</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>263</v>
+        <v>631</v>
       </c>
       <c r="H26" s="7">
         <v>64</v>
       </c>
       <c r="I26" s="7">
-        <v>42154</v>
+        <v>37503</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>226</v>
+        <v>633</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M26" s="7">
         <v>105</v>
       </c>
       <c r="N26" s="7">
-        <v>80661</v>
+        <v>76804</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>388</v>
+        <v>598</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>637</v>
+        <v>488</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7756,7 +7744,7 @@
         <v>3357</v>
       </c>
       <c r="D27" s="7">
-        <v>3370270</v>
+        <v>3445999</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7771,7 +7759,7 @@
         <v>5324</v>
       </c>
       <c r="I27" s="7">
-        <v>3780756</v>
+        <v>3636756</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -7786,7 +7774,7 @@
         <v>8681</v>
       </c>
       <c r="N27" s="7">
-        <v>7151026</v>
+        <v>7082755</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
